--- a/RegNum.xlsx
+++ b/RegNum.xlsx
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
